--- a/气象/蒙古相关/蒙古91-20气温统计详细表.xlsx
+++ b/气象/蒙古相关/蒙古91-20气温统计详细表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B096072-4313-4FB4-B920-AD7AD2E4BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C78E26-0576-4955-839A-D6FD363C3E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E93861B9-CD70-4C8D-B866-011E4AE1EA5C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="401">
   <si>
     <t>Архангай</t>
   </si>
@@ -1253,6 +1253,10 @@
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>汗赫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1771,9 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEFAAF-BF0D-4DEF-A5FF-3467EB34F7E4}">
   <dimension ref="A1:Q319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -17223,7 +17227,9 @@
       <c r="C301" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E301" s="2">
         <v>-21.1</v>
       </c>
